--- a/JP (Exclude Game)/Dialog/Drama/big_sister.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/big_sister.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t xml:space="preserve">...Hehe, a new Little One has come to us, #bigdaddy. No longer lost. From now on, we'll protect her, no matter what... right, #bigdaddy?
 Thank you, angel...Hey, #bigdaddy, do you think angels really exist? If there really were angels, how wonderful that would be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modAffinity</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -500,12 +503,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,41 +734,61 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
+    <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="E27" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="1" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="1" t="n">
+      <c r="J33" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="I34" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
+      <c r="J34" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
